--- a/docs/ColorScale-ALL.xlsx
+++ b/docs/ColorScale-ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myFiles\Git\Catatumbo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{689F5D15-56BC-488B-890F-2700F375C0C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C059D459-A9C5-4C01-AB3A-FB77F41BBC3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6254D5CB-A900-47F5-A6E3-719C72A36DDA}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="72">
   <si>
     <t>warm</t>
   </si>
@@ -258,12 +258,30 @@
   <si>
     <t>Color space (normal)</t>
   </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>http://paletton.com/#uid=72P1T0kwi++bu++hX++++rd++kX</t>
+  </si>
+  <si>
+    <t>https://www.talu.de/komplementaerfarben-definition/</t>
+  </si>
+  <si>
+    <t>Basis for corner color values</t>
+  </si>
+  <si>
+    <t>Color circle, complementary colors:</t>
+  </si>
+  <si>
+    <t>Color circle with harmonic color tetraeder:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +438,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -973,10 +999,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,9 +1170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="21" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1162,9 +1186,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1213,9 +1234,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1234,8 +1252,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4517,7 +4546,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5958,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4B77B-4853-4A74-8659-0A438A7CF41A}">
   <dimension ref="B1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5978,33 +6007,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="127"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="125"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q3" s="127"/>
+      <c r="Q3" s="125"/>
     </row>
     <row r="4" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="103" t="s">
@@ -6019,7 +6048,7 @@
       <c r="E4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="139" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="103">
@@ -6028,29 +6057,29 @@
       <c r="I4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="115" t="str">
+      <c r="J4" s="113" t="str">
         <f>CONCATENATE("-5.0%:",255,"/",127,"/",0)</f>
         <v>-5.0%:255/127/0</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="125" t="str">
+      <c r="K4" s="107"/>
+      <c r="L4" s="123" t="str">
         <f>CONCATENATE("-2,8%:",175,"/","?","/","0")</f>
         <v>-2,8%:175/?/0</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="125" t="str">
+      <c r="M4" s="109"/>
+      <c r="N4" s="123" t="str">
         <f>CONCATENATE("-2,2%:",140,"/","?","/","0")</f>
         <v>-2,2%:140/?/0</v>
       </c>
-      <c r="O4" s="125" t="str">
+      <c r="O4" s="123" t="str">
         <f>CONCATENATE("-1,3%:","?","/",255,"/","?")</f>
         <v>-1,3%:?/255/?</v>
       </c>
-      <c r="P4" s="122" t="str">
+      <c r="P4" s="120" t="str">
         <f>CONCATENATE("+0%:",0,"/",255,"/",0)</f>
         <v>+0%:0/255/0</v>
       </c>
-      <c r="Q4" s="127"/>
+      <c r="Q4" s="125"/>
     </row>
     <row r="5" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="103" t="s">
@@ -6068,32 +6097,32 @@
         <f>"+2.5%"</f>
         <v>+2.5%</v>
       </c>
-      <c r="G5" s="107"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="103">
         <v>1.2</v>
       </c>
       <c r="I5" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="110" t="str">
+      <c r="J5" s="109" t="str">
         <f t="shared" ref="J5:J8" si="0">_xlfn.CONCAT($J$12-H5,"%:255/","?","/","?")</f>
         <v>-3,7%:255/?/?</v>
       </c>
-      <c r="K5" s="125" t="str">
+      <c r="K5" s="123" t="str">
         <f>CONCATENATE("-2,4%:",255,"/","?","/",140)</f>
         <v>-2,4%:255/?/140</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="121" t="str">
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="119" t="str">
         <f>CONCATENATE("+0%:",140,"/",255,"/",140)</f>
         <v>+0%:140/255/140</v>
       </c>
-      <c r="P5" s="108">
+      <c r="P5" s="107">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="127"/>
+      <c r="Q5" s="125"/>
     </row>
     <row r="6" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="103" t="s">
@@ -6107,39 +6136,39 @@
         <f>_xlfn.CONCAT("0/",#REF!,"/0")</f>
         <v>#REF!</v>
       </c>
-      <c r="E6" s="109" t="str">
+      <c r="E6" s="108" t="str">
         <f>"+1.2%"</f>
         <v>+1.2%</v>
       </c>
-      <c r="G6" s="107"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="103">
         <v>0.3</v>
       </c>
       <c r="I6" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="110" t="str">
+      <c r="J6" s="109" t="str">
         <f t="shared" si="0"/>
         <v>-2,8%:255/?/?</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="125" t="str">
+      <c r="K6" s="107"/>
+      <c r="L6" s="123" t="str">
         <f>CONCATENATE("-0,6%:",255,"/","?","/",175)</f>
         <v>-0,6%:255/?/175</v>
       </c>
-      <c r="M6" s="108"/>
-      <c r="N6" s="120" t="str">
+      <c r="M6" s="107"/>
+      <c r="N6" s="118" t="str">
         <f>CONCATENATE("+0%:",175,"/",255,"/",175)</f>
         <v>+0%:175/255/175</v>
       </c>
-      <c r="O6" s="108">
+      <c r="O6" s="107">
         <v>0.3</v>
       </c>
-      <c r="P6" s="124" t="str">
+      <c r="P6" s="122" t="str">
         <f>CONCATENATE("+2,2%:",0,"/","?","/",140)</f>
         <v>+2,2%:0/?/140</v>
       </c>
-      <c r="Q6" s="127"/>
+      <c r="Q6" s="125"/>
     </row>
     <row r="7" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="103" t="s">
@@ -6153,39 +6182,39 @@
         <f>_xlfn.CONCAT("0/",#REF!,"/0")</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="111" t="str">
+      <c r="E7" s="110" t="str">
         <f>"+0.3%"</f>
         <v>+0.3%</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="140">
+      <c r="G7" s="139"/>
+      <c r="H7" s="137">
         <v>0</v>
       </c>
       <c r="I7" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="110" t="str">
+      <c r="J7" s="109" t="str">
         <f t="shared" si="0"/>
         <v>-2,5%:255/?/?</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="119" t="str">
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="117" t="str">
         <f>CONCATENATE("+0%:",255,"/",255,"/",255)</f>
         <v>+0%:255/255/255</v>
       </c>
-      <c r="N7" s="108">
+      <c r="N7" s="107">
         <v>0.3</v>
       </c>
-      <c r="O7" s="125" t="str">
+      <c r="O7" s="123" t="str">
         <f>CONCATENATE("+1,2%:",140,"/","?","/",175)</f>
         <v>+1,2%:140/?/175</v>
       </c>
-      <c r="P7" s="110">
+      <c r="P7" s="109">
         <v>2.5</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="139"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="136"/>
     </row>
     <row r="8" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="103" t="s">
@@ -6199,41 +6228,41 @@
         <f>_xlfn.CONCAT("0/","0","/0")</f>
         <v>0/0/0</v>
       </c>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="111" t="str">
         <f>"+0%"</f>
         <v>+0%</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="139"/>
       <c r="H8" s="103">
         <v>-0.3</v>
       </c>
       <c r="I8" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="110" t="str">
+      <c r="J8" s="109" t="str">
         <f t="shared" si="0"/>
         <v>-2,2%:255/?/?</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="118" t="str">
+      <c r="K8" s="107"/>
+      <c r="L8" s="116" t="str">
         <f>CONCATENATE("+0%:",255,"/",175,"/",255)</f>
         <v>+0%:255/175/255</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="107">
         <v>0.3</v>
       </c>
-      <c r="N8" s="125" t="str">
+      <c r="N8" s="123" t="str">
         <f>CONCATENATE("+0,6%:",175,"/","175","/",255)</f>
         <v>+0,6%:175/175/255</v>
       </c>
-      <c r="O8" s="108">
+      <c r="O8" s="107">
         <v>2.5</v>
       </c>
-      <c r="P8" s="125" t="str">
+      <c r="P8" s="123" t="str">
         <f>CONCATENATE("+2,8%:",0,"/","?","/",175)</f>
         <v>+2,8%:0/?/175</v>
       </c>
-      <c r="Q8" s="127"/>
+      <c r="Q8" s="125"/>
     </row>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="103" t="s">
@@ -6247,43 +6276,43 @@
         <f>_xlfn.CONCAT(#REF!,"/0","/0")</f>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="116" t="str">
         <f>"-0.3%"</f>
         <v>-0.3%</v>
       </c>
-      <c r="G9" s="107"/>
+      <c r="G9" s="139"/>
       <c r="H9" s="103">
         <v>-1.2</v>
       </c>
       <c r="I9" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="110" t="str">
+      <c r="J9" s="109" t="str">
         <f>_xlfn.CONCAT($J$12-H9,"%:255/","?","/","?")</f>
         <v>-1,3%:255/?/?</v>
       </c>
-      <c r="K9" s="117" t="str">
+      <c r="K9" s="115" t="str">
         <f>CONCATENATE("+0%:",255,"/",140,"/",255)</f>
         <v>+0%:255/140/255</v>
       </c>
-      <c r="L9" s="125" t="str">
+      <c r="L9" s="123" t="str">
         <f>CONCATENATE("+0,9%:",175,"/","?","/",255)</f>
         <v>+0,9%:175/?/255</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="107">
         <v>1.2</v>
       </c>
-      <c r="N9" s="108">
+      <c r="N9" s="107">
         <v>2.5</v>
       </c>
-      <c r="O9" s="125" t="str">
+      <c r="O9" s="123" t="str">
         <f>CONCATENATE("+2,4%:",140,"/","?","/",255)</f>
         <v>+2,4%:140/?/255</v>
       </c>
-      <c r="P9" s="108">
+      <c r="P9" s="107">
         <v>3.7</v>
       </c>
-      <c r="Q9" s="127"/>
+      <c r="Q9" s="125"/>
     </row>
     <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="103" t="s">
@@ -6297,43 +6326,43 @@
         <f>_xlfn.CONCAT(#REF!,"/0","/0")</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="115" t="str">
         <f>"-1.2%"</f>
         <v>-1.2%</v>
       </c>
-      <c r="G10" s="107"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="103">
         <v>-2.5</v>
       </c>
       <c r="I10" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="116" t="str">
+      <c r="J10" s="114" t="str">
         <f>CONCATENATE("+0%:",255,"/",0,"/",255)</f>
         <v>+0%:255/0/255</v>
       </c>
-      <c r="K10" s="108">
+      <c r="K10" s="107">
         <v>0.3</v>
       </c>
-      <c r="L10" s="125" t="str">
+      <c r="L10" s="123" t="str">
         <f>CONCATENATE("+2,2%:",140,"/","?","/",255)</f>
         <v>+2,2%:140/?/255</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="109">
         <v>2.5</v>
       </c>
-      <c r="N10" s="125" t="str">
+      <c r="N10" s="123" t="str">
         <f>CONCATENATE("+2,8%:",175,"/","?","/",255)</f>
         <v>+2,8%:175/?/255</v>
       </c>
-      <c r="O10" s="108">
+      <c r="O10" s="107">
         <v>3.7</v>
       </c>
-      <c r="P10" s="123" t="str">
+      <c r="P10" s="121" t="str">
         <f>CONCATENATE("+5.0%:",0,"/",127,"/",255)</f>
         <v>+5.0%:0/127/255</v>
       </c>
-      <c r="Q10" s="127"/>
+      <c r="Q10" s="125"/>
     </row>
     <row r="11" spans="2:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="103" t="s">
@@ -6347,30 +6376,30 @@
         <f>_xlfn.CONCAT(#REF!,"/0","/0")</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="116" t="str">
+      <c r="E11" s="114" t="str">
         <f>"-2.5%"</f>
         <v>-2.5%</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="J11" s="113" t="s">
+      <c r="F11" s="124"/>
+      <c r="J11" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="113" t="s">
+      <c r="K11" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="113" t="s">
+      <c r="L11" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="113" t="s">
+      <c r="N11" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="113" t="s">
+      <c r="O11" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="113" t="s">
+      <c r="P11" s="112" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6398,105 +6427,131 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F13" s="130"/>
-      <c r="M13" s="138"/>
+      <c r="F13" s="128"/>
+      <c r="M13" s="135"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F14" s="130"/>
+      <c r="F14" s="128"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F15" s="130"/>
+      <c r="F15" s="128"/>
       <c r="I15" s="103" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F16" s="130"/>
-      <c r="I16" s="134" t="s">
+      <c r="F16" s="128"/>
+      <c r="I16" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="135">
+      <c r="J16" s="132">
         <v>254</v>
       </c>
-      <c r="K16" s="135">
+      <c r="K16" s="132">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F17" s="130"/>
-      <c r="I17" s="134">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F17" s="128"/>
+      <c r="I17" s="131">
         <v>2.5</v>
       </c>
-      <c r="J17" s="128">
+      <c r="J17" s="126">
         <f>$J$16-ROUND($J$16/(1+EXP(0.8*I17)),0)</f>
         <v>224</v>
       </c>
-      <c r="K17" s="128">
+      <c r="K17" s="126">
         <f>$K$16-ROUND($K$16/(1+EXP(0.8*I17)),0)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F18" s="130"/>
-      <c r="I18" s="136" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F18" s="128"/>
+      <c r="I18" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="128">
+      <c r="J18" s="126">
         <f>J16-J17</f>
         <v>30</v>
       </c>
-      <c r="K18" s="128">
+      <c r="K18" s="126">
         <f>K16-K17</f>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F19" s="130"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="134" t="s">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F19" s="128"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I21" s="103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I22" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+    </row>
+    <row r="23" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I23" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="141" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="131" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="132" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132" t="s">
+      <c r="C26" s="140"/>
+      <c r="D26" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132" t="s">
+      <c r="E26" s="140"/>
+      <c r="F26" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="132"/>
-    </row>
-    <row r="27" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="133"/>
-      <c r="C27" s="133" t="s">
+      <c r="G26" s="140"/>
+    </row>
+    <row r="27" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="130"/>
+      <c r="C27" s="130" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="101">
         <v>254</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E27" s="129">
         <v>126</v>
       </c>
       <c r="F27" s="101">
         <v>254</v>
       </c>
-      <c r="G27" s="131">
+      <c r="G27" s="129">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28"/>
       <c r="C28">
         <v>4.5</v>
       </c>
       <c r="D28" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C28))-$D$27/2),0)</f>
+        <f t="shared" ref="D28:D59" si="1">$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C28))-$D$27/2),0)</f>
         <v>247</v>
       </c>
       <c r="E28" s="103">
@@ -6512,91 +6567,91 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29">
         <v>4.4000000000000004</v>
       </c>
       <c r="D29" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C29))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="E29" s="103">
-        <f t="shared" ref="E28:E72" si="1">$E$27/2+ROUND(ABS($E$27/(1+EXP(0.8*C29))-$E$27/2),0)</f>
+        <f t="shared" ref="E29:E72" si="2">$E$27/2+ROUND(ABS($E$27/(1+EXP(0.8*C29))-$E$27/2),0)</f>
         <v>122</v>
       </c>
       <c r="F29" s="103">
-        <f t="shared" ref="F29:F92" si="2">$F$27-ROUND($F$27/(1+EXP(0.8*C29)),0)</f>
+        <f t="shared" ref="F29:F92" si="3">$F$27-ROUND($F$27/(1+EXP(0.8*C29)),0)</f>
         <v>247</v>
       </c>
       <c r="G29" s="103">
-        <f t="shared" ref="G29:G92" si="3">$G$27-ROUND($E$27/(1+EXP(0.8*C29)),0)</f>
+        <f t="shared" ref="G29:G92" si="4">$G$27-ROUND($E$27/(1+EXP(0.8*C29)),0)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30">
         <v>4.3</v>
       </c>
       <c r="D30" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C30))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
       <c r="E30" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="F30" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="G30" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31">
         <v>4.2</v>
       </c>
       <c r="D31" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C31))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="E31" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="F31" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="G31" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32">
         <v>4.0999999999999996</v>
       </c>
       <c r="D32" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C32))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="E32" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="F32" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="G32" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
     </row>
@@ -6606,19 +6661,19 @@
         <v>4</v>
       </c>
       <c r="D33" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C33))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="E33" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="F33" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="G33" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
     </row>
@@ -6628,19 +6683,19 @@
         <v>3.9</v>
       </c>
       <c r="D34" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C34))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
       <c r="E34" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="F34" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="G34" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
     </row>
@@ -6650,19 +6705,19 @@
         <v>3.8</v>
       </c>
       <c r="D35" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C35))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="E35" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="F35" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="G35" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
@@ -6672,19 +6727,19 @@
         <v>3.7</v>
       </c>
       <c r="D36" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C36))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
       <c r="E36" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="F36" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="G36" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
@@ -6694,19 +6749,19 @@
         <v>3.6</v>
       </c>
       <c r="D37" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C37))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="E37" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="F37" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="G37" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
     </row>
@@ -6716,19 +6771,19 @@
         <v>3.5</v>
       </c>
       <c r="D38" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C38))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="E38" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="F38" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="G38" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
     </row>
@@ -6738,19 +6793,19 @@
         <v>3.4</v>
       </c>
       <c r="D39" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C39))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="E39" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="F39" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="G39" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
     </row>
@@ -6760,19 +6815,19 @@
         <v>3.3</v>
       </c>
       <c r="D40" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C40))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="E40" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="F40" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="G40" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
     </row>
@@ -6782,19 +6837,19 @@
         <v>3.2</v>
       </c>
       <c r="D41" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C41))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="E41" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="F41" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="G41" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
     </row>
@@ -6804,19 +6859,19 @@
         <v>3.1</v>
       </c>
       <c r="D42" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C42))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="E42" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="F42" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G42" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
     </row>
@@ -6826,22 +6881,22 @@
         <v>3</v>
       </c>
       <c r="D43" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C43))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>233</v>
       </c>
       <c r="E43" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="F43" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="G43" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="M43" s="128"/>
+      <c r="M43" s="126"/>
     </row>
     <row r="44" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44"/>
@@ -6849,22 +6904,22 @@
         <v>2.9</v>
       </c>
       <c r="D44" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C44))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="E44" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="F44" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="G44" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="M44" s="128"/>
+      <c r="M44" s="126"/>
     </row>
     <row r="45" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45"/>
@@ -6872,22 +6927,22 @@
         <v>2.8</v>
       </c>
       <c r="D45" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C45))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="E45" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="F45" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="G45" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="M45" s="128"/>
+      <c r="M45" s="126"/>
     </row>
     <row r="46" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46"/>
@@ -6895,22 +6950,22 @@
         <v>2.7</v>
       </c>
       <c r="D46" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C46))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>228</v>
       </c>
       <c r="E46" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="F46" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="G46" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="M46" s="128"/>
+      <c r="M46" s="126"/>
     </row>
     <row r="47" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47"/>
@@ -6918,22 +6973,22 @@
         <v>2.6</v>
       </c>
       <c r="D47" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C47))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="E47" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="F47" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="G47" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="M47" s="128"/>
+      <c r="M47" s="126"/>
     </row>
     <row r="48" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48"/>
@@ -6941,22 +6996,22 @@
         <v>2.5</v>
       </c>
       <c r="D48" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C48))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>224</v>
       </c>
       <c r="E48" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="F48" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="G48" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="M48" s="128"/>
+      <c r="M48" s="126"/>
     </row>
     <row r="49" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49"/>
@@ -6964,22 +7019,22 @@
         <v>2.4</v>
       </c>
       <c r="D49" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C49))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="E49" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="F49" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="G49" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="M49" s="128"/>
+      <c r="M49" s="126"/>
     </row>
     <row r="50" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B50"/>
@@ -6987,22 +7042,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D50" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C50))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>219</v>
       </c>
       <c r="E50" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="F50" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="G50" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="M50" s="128"/>
+      <c r="M50" s="126"/>
     </row>
     <row r="51" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51"/>
@@ -7010,22 +7065,22 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D51" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C51))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="E51" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="F51" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="G51" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="M51" s="128"/>
+      <c r="M51" s="126"/>
     </row>
     <row r="52" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52"/>
@@ -7033,22 +7088,22 @@
         <v>2.1</v>
       </c>
       <c r="D52" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C52))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>214</v>
       </c>
       <c r="E52" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="F52" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="G52" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="M52" s="128"/>
+      <c r="M52" s="126"/>
     </row>
     <row r="53" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53"/>
@@ -7056,19 +7111,19 @@
         <v>2</v>
       </c>
       <c r="D53" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C53))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="E53" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="F53" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="G53" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
@@ -7078,19 +7133,19 @@
         <v>1.9</v>
       </c>
       <c r="D54" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C54))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="E54" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="F54" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="G54" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
     </row>
@@ -7100,19 +7155,19 @@
         <v>1.8</v>
       </c>
       <c r="D55" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C55))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="E55" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="F55" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="G55" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
@@ -7122,19 +7177,19 @@
         <v>1.7</v>
       </c>
       <c r="D56" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C56))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="E56" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F56" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="G56" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -7144,19 +7199,19 @@
         <v>1.6</v>
       </c>
       <c r="D57" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C57))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="E57" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="F57" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="G57" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
     </row>
@@ -7166,19 +7221,19 @@
         <v>1.5</v>
       </c>
       <c r="D58" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C58))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="E58" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="F58" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="G58" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
     </row>
@@ -7188,19 +7243,19 @@
         <v>1.4</v>
       </c>
       <c r="D59" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C59))-$D$27/2),0)</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="E59" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F59" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="G59" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
     </row>
@@ -7210,19 +7265,19 @@
         <v>1.3</v>
       </c>
       <c r="D60" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C60))-$D$27/2),0)</f>
+        <f t="shared" ref="D60:D91" si="5">$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C60))-$D$27/2),0)</f>
         <v>188</v>
       </c>
       <c r="E60" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="F60" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="G60" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
@@ -7232,19 +7287,19 @@
         <v>1.2</v>
       </c>
       <c r="D61" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C61))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="E61" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="F61" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="G61" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
     </row>
@@ -7254,19 +7309,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D62" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C62))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="E62" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="F62" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="G62" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
     </row>
@@ -7276,19 +7331,19 @@
         <v>1</v>
       </c>
       <c r="D63" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C63))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="E63" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="F63" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="G63" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
     </row>
@@ -7298,19 +7353,19 @@
         <v>0.9</v>
       </c>
       <c r="D64" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C64))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="E64" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="F64" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
       <c r="G64" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
@@ -7320,19 +7375,19 @@
         <v>0.8</v>
       </c>
       <c r="D65" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C65))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="E65" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="F65" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="G65" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
     </row>
@@ -7342,19 +7397,19 @@
         <v>0.7</v>
       </c>
       <c r="D66" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C66))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="E66" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="F66" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="G66" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -7364,19 +7419,19 @@
         <v>0.6</v>
       </c>
       <c r="D67" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C67))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="E67" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="F67" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="G67" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
@@ -7386,19 +7441,19 @@
         <v>0.5</v>
       </c>
       <c r="D68" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C68))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="E68" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F68" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="G68" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -7408,19 +7463,19 @@
         <v>0.4</v>
       </c>
       <c r="D69" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C69))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="E69" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="F69" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="G69" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
     </row>
@@ -7430,19 +7485,19 @@
         <v>0.3</v>
       </c>
       <c r="D70" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C70))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="E70" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="F70" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="G70" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
@@ -7452,19 +7507,19 @@
         <v>0.2</v>
       </c>
       <c r="D71" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C71))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="E71" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="F71" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="G71" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
     </row>
@@ -7474,19 +7529,19 @@
         <v>0.1</v>
       </c>
       <c r="D72" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C72))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="E72" s="103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="F72" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="G72" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
     </row>
@@ -7495,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="101">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C73))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="E73" s="103">
@@ -7503,11 +7558,11 @@
         <v>63</v>
       </c>
       <c r="F73" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="G73" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
@@ -7517,15 +7572,15 @@
         <v>-0.1</v>
       </c>
       <c r="D74" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C74))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="E74" s="103">
-        <f t="shared" ref="E74:E118" si="4">$E$27/2+ROUND(ABS($E$27/(1+EXP(0.8*C74))-$E$27/2),0)</f>
+        <f t="shared" ref="E74:E118" si="6">$E$27/2+ROUND(ABS($E$27/(1+EXP(0.8*C74))-$E$27/2),0)</f>
         <v>66</v>
       </c>
       <c r="F74" s="103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G74" s="103">
@@ -7539,19 +7594,19 @@
         <v>-0.2</v>
       </c>
       <c r="D75" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C75))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="E75" s="103">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="F75" s="103">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="G75" s="103">
         <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="F75" s="103">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="G75" s="103">
-        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -7561,19 +7616,19 @@
         <v>-0.3</v>
       </c>
       <c r="D76" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C76))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="E76" s="103">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="F76" s="103">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="G76" s="103">
         <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="F76" s="103">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="G76" s="103">
-        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7583,19 +7638,19 @@
         <v>-0.4</v>
       </c>
       <c r="D77" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C77))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="E77" s="103">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="F77" s="103">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="G77" s="103">
         <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="F77" s="103">
-        <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="G77" s="103">
-        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
@@ -7605,19 +7660,19 @@
         <v>-0.5</v>
       </c>
       <c r="D78" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C78))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="E78" s="103">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F78" s="103">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="G78" s="103">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="F78" s="103">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="G78" s="103">
-        <f t="shared" si="3"/>
         <v>51</v>
       </c>
     </row>
@@ -7627,19 +7682,19 @@
         <v>-0.6</v>
       </c>
       <c r="D79" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C79))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="E79" s="103">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="F79" s="103">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="G79" s="103">
         <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="F79" s="103">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="G79" s="103">
-        <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
@@ -7649,19 +7704,19 @@
         <v>-0.7</v>
       </c>
       <c r="D80" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C80))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="E80" s="103">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="F80" s="103">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="G80" s="103">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="F80" s="103">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="G80" s="103">
-        <f t="shared" si="3"/>
         <v>46</v>
       </c>
     </row>
@@ -7671,19 +7726,19 @@
         <v>-0.8</v>
       </c>
       <c r="D81" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C81))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="E81" s="103">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F81" s="103">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="G81" s="103">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="F81" s="103">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="G81" s="103">
-        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
@@ -7693,19 +7748,19 @@
         <v>-0.9</v>
       </c>
       <c r="D82" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C82))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="E82" s="103">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="F82" s="103">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="G82" s="103">
         <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="F82" s="103">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="G82" s="103">
-        <f t="shared" si="3"/>
         <v>41</v>
       </c>
     </row>
@@ -7715,19 +7770,19 @@
         <v>-1</v>
       </c>
       <c r="D83" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C83))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="E83" s="103">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="F83" s="103">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="G83" s="103">
         <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="F83" s="103">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="G83" s="103">
-        <f t="shared" si="3"/>
         <v>39</v>
       </c>
     </row>
@@ -7737,19 +7792,19 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="D84" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C84))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="E84" s="103">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="F84" s="103">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="G84" s="103">
         <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="F84" s="103">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="G84" s="103">
-        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
@@ -7759,19 +7814,19 @@
         <v>-1.2</v>
       </c>
       <c r="D85" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C85))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="E85" s="103">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="F85" s="103">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="G85" s="103">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="F85" s="103">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="G85" s="103">
-        <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
@@ -7781,19 +7836,19 @@
         <v>-1.3</v>
       </c>
       <c r="D86" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C86))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>188</v>
       </c>
       <c r="E86" s="103">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F86" s="103">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="G86" s="103">
         <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="F86" s="103">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="G86" s="103">
-        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -7803,19 +7858,19 @@
         <v>-1.4</v>
       </c>
       <c r="D87" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C87))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="E87" s="103">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F87" s="103">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G87" s="103">
         <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="F87" s="103">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="G87" s="103">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -7825,19 +7880,19 @@
         <v>-1.5</v>
       </c>
       <c r="D88" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C88))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="E88" s="103">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F88" s="103">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="G88" s="103">
         <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="F88" s="103">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="G88" s="103">
-        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
@@ -7847,19 +7902,19 @@
         <v>-1.6</v>
       </c>
       <c r="D89" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C89))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="E89" s="103">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="F89" s="103">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="G89" s="103">
         <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="F89" s="103">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="G89" s="103">
-        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -7869,19 +7924,19 @@
         <v>-1.7</v>
       </c>
       <c r="D90" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C90))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>202</v>
       </c>
       <c r="E90" s="103">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F90" s="103">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="G90" s="103">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="F90" s="103">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="G90" s="103">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
@@ -7891,19 +7946,19 @@
         <v>-1.8</v>
       </c>
       <c r="D91" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C91))-$D$27/2),0)</f>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="E91" s="103">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+      <c r="F91" s="103">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="G91" s="103">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="F91" s="103">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="G91" s="103">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
@@ -7913,19 +7968,19 @@
         <v>-1.9</v>
       </c>
       <c r="D92" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C92))-$D$27/2),0)</f>
+        <f t="shared" ref="D92:D123" si="7">$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C92))-$D$27/2),0)</f>
         <v>208</v>
       </c>
       <c r="E92" s="103">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="F92" s="103">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="G92" s="103">
         <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="F92" s="103">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="G92" s="103">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
@@ -7935,19 +7990,19 @@
         <v>-2</v>
       </c>
       <c r="D93" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C93))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>211</v>
       </c>
       <c r="E93" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="F93" s="103">
-        <f t="shared" ref="F93:F118" si="5">$F$27-ROUND($F$27/(1+EXP(0.8*C93)),0)</f>
+        <f t="shared" ref="F93:F118" si="8">$F$27-ROUND($F$27/(1+EXP(0.8*C93)),0)</f>
         <v>43</v>
       </c>
       <c r="G93" s="103">
-        <f t="shared" ref="G93:G118" si="6">$G$27-ROUND($E$27/(1+EXP(0.8*C93)),0)</f>
+        <f t="shared" ref="G93:G118" si="9">$G$27-ROUND($E$27/(1+EXP(0.8*C93)),0)</f>
         <v>21</v>
       </c>
     </row>
@@ -7957,19 +8012,19 @@
         <v>-2.1</v>
       </c>
       <c r="D94" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C94))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>214</v>
       </c>
       <c r="E94" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="F94" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G94" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -7979,19 +8034,19 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="D95" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C95))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>217</v>
       </c>
       <c r="E95" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="F95" s="131">
-        <f t="shared" si="5"/>
+      <c r="F95" s="129">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="G95" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
     </row>
@@ -8001,19 +8056,19 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="D96" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C96))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>219</v>
       </c>
       <c r="E96" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="F96" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G96" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
@@ -8023,19 +8078,19 @@
         <v>-2.4</v>
       </c>
       <c r="D97" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C97))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>222</v>
       </c>
       <c r="E97" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="F97" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="G97" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
@@ -8045,19 +8100,19 @@
         <v>-2.5</v>
       </c>
       <c r="D98" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C98))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="E98" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="F98" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G98" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
     </row>
@@ -8067,19 +8122,19 @@
         <v>-2.6</v>
       </c>
       <c r="D99" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C99))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>226</v>
       </c>
       <c r="E99" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="F99" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="G99" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
@@ -8089,19 +8144,19 @@
         <v>-2.7</v>
       </c>
       <c r="D100" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C100))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="E100" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="F100" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="G100" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
     </row>
@@ -8111,19 +8166,19 @@
         <v>-2.8</v>
       </c>
       <c r="D101" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C101))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>230</v>
       </c>
       <c r="E101" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="F101" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G101" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
@@ -8133,19 +8188,19 @@
         <v>-2.9</v>
       </c>
       <c r="D102" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C102))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="E102" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="F102" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="G102" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -8155,19 +8210,19 @@
         <v>-3</v>
       </c>
       <c r="D103" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C103))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>233</v>
       </c>
       <c r="E103" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="F103" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="G103" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -8177,19 +8232,19 @@
         <v>-3.1</v>
       </c>
       <c r="D104" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C104))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>234</v>
       </c>
       <c r="E104" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="F104" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G104" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
@@ -8199,19 +8254,19 @@
         <v>-3.2</v>
       </c>
       <c r="D105" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C105))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>236</v>
       </c>
       <c r="E105" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="F105" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G105" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
     </row>
@@ -8221,19 +8276,19 @@
         <v>-3.3</v>
       </c>
       <c r="D106" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C106))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>237</v>
       </c>
       <c r="E106" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="F106" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="G106" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -8243,19 +8298,19 @@
         <v>-3.4</v>
       </c>
       <c r="D107" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C107))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="E107" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="F107" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="G107" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -8265,19 +8320,19 @@
         <v>-3.5</v>
       </c>
       <c r="D108" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C108))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>239</v>
       </c>
       <c r="E108" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="F108" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G108" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
@@ -8287,19 +8342,19 @@
         <v>-3.6</v>
       </c>
       <c r="D109" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C109))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="E109" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="F109" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="G109" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
@@ -8309,19 +8364,19 @@
         <v>-3.7</v>
       </c>
       <c r="D110" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C110))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>241</v>
       </c>
       <c r="E110" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="F110" s="131">
-        <f t="shared" si="5"/>
+      <c r="F110" s="129">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="G110" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -8331,19 +8386,19 @@
         <v>-3.8</v>
       </c>
       <c r="D111" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C111))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="E111" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="F111" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="G111" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -8353,19 +8408,19 @@
         <v>-3.9</v>
       </c>
       <c r="D112" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C112))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
       <c r="E112" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="F112" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="G112" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8375,19 +8430,19 @@
         <v>-4</v>
       </c>
       <c r="D113" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C113))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>244</v>
       </c>
       <c r="E113" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="F113" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G113" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8397,19 +8452,19 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="D114" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C114))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="E114" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="F114" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G114" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -8419,19 +8474,19 @@
         <v>-4.2</v>
       </c>
       <c r="D115" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C115))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="E115" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="F115" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G115" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -8441,19 +8496,19 @@
         <v>-4.3</v>
       </c>
       <c r="D116" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C116))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>246</v>
       </c>
       <c r="E116" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="F116" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G116" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -8463,19 +8518,19 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="D117" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C117))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="E117" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="F117" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G117" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -8485,19 +8540,19 @@
         <v>-4.5</v>
       </c>
       <c r="D118" s="102">
-        <f>$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C118))-$D$27/2),0)</f>
+        <f t="shared" si="7"/>
         <v>247</v>
       </c>
       <c r="E118" s="103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="F118" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G118" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -8509,8 +8564,12 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K23" r:id="rId1" location="uid=72P1T0kwi++bu++hX++++rd++kX" display="http://paletton.com/ - uid=72P1T0kwi++bu++hX++++rd++kX" xr:uid="{FD54A970-A8B3-48F5-AC50-DDBE2AF627B9}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{9B9EFF34-2A77-49F7-B8D4-F8F27EDBF31C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/docs/ColorScale-ALL.xlsx
+++ b/docs/ColorScale-ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myFiles\Git\Catatumbo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C059D459-A9C5-4C01-AB3A-FB77F41BBC3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E065967-0BCA-4AE2-8F4A-AC627FC2D5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6254D5CB-A900-47F5-A6E3-719C72A36DDA}"/>
+    <workbookView xWindow="1464" yWindow="36" windowWidth="17304" windowHeight="12468" activeTab="1" xr2:uid="{6254D5CB-A900-47F5-A6E3-719C72A36DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="forecast" sheetId="1" r:id="rId1"/>
@@ -1252,6 +1252,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1261,7 +1262,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5987,7 +5987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4B77B-4853-4A74-8659-0A438A7CF41A}">
   <dimension ref="B1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:R13"/>
     </sheetView>
   </sheetViews>
@@ -6018,18 +6018,18 @@
       <c r="P1" s="127"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="G2" s="138" t="s">
+      <c r="G2" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
       <c r="Q2" s="125"/>
     </row>
     <row r="3" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6048,7 +6048,7 @@
       <c r="E4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="140" t="s">
         <v>56</v>
       </c>
       <c r="H4" s="103">
@@ -6097,7 +6097,7 @@
         <f>"+2.5%"</f>
         <v>+2.5%</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="140"/>
       <c r="H5" s="103">
         <v>1.2</v>
       </c>
@@ -6140,7 +6140,7 @@
         <f>"+1.2%"</f>
         <v>+1.2%</v>
       </c>
-      <c r="G6" s="139"/>
+      <c r="G6" s="140"/>
       <c r="H6" s="103">
         <v>0.3</v>
       </c>
@@ -6186,7 +6186,7 @@
         <f>"+0.3%"</f>
         <v>+0.3%</v>
       </c>
-      <c r="G7" s="139"/>
+      <c r="G7" s="140"/>
       <c r="H7" s="137">
         <v>0</v>
       </c>
@@ -6232,7 +6232,7 @@
         <f>"+0%"</f>
         <v>+0%</v>
       </c>
-      <c r="G8" s="139"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="103">
         <v>-0.3</v>
       </c>
@@ -6280,7 +6280,7 @@
         <f>"-0.3%"</f>
         <v>-0.3%</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="140"/>
       <c r="H9" s="103">
         <v>-1.2</v>
       </c>
@@ -6330,7 +6330,7 @@
         <f>"-1.2%"</f>
         <v>-1.2%</v>
       </c>
-      <c r="G10" s="139"/>
+      <c r="G10" s="140"/>
       <c r="H10" s="103">
         <v>-2.5</v>
       </c>
@@ -6491,7 +6491,7 @@
       <c r="I22" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="141" t="s">
+      <c r="K22" s="138" t="s">
         <v>68</v>
       </c>
       <c r="N22" s="130" t="s">
@@ -6504,7 +6504,7 @@
       <c r="I23" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="141" t="s">
+      <c r="K23" s="138" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6514,18 +6514,18 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140" t="s">
+      <c r="C26" s="141"/>
+      <c r="D26" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140" t="s">
+      <c r="E26" s="141"/>
+      <c r="F26" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="140"/>
+      <c r="G26" s="141"/>
     </row>
     <row r="27" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="130"/>
@@ -7968,7 +7968,7 @@
         <v>-1.9</v>
       </c>
       <c r="D92" s="102">
-        <f t="shared" ref="D92:D123" si="7">$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C92))-$D$27/2),0)</f>
+        <f t="shared" ref="D92:D118" si="7">$D$27/2+ROUND(ABS($D$27/(1+EXP(0.8*C92))-$D$27/2),0)</f>
         <v>208</v>
       </c>
       <c r="E92" s="103">
